--- a/Testdata/ImportPublicationsPage_Data_Staging.xlsx
+++ b/Testdata/ImportPublicationsPage_Data_Staging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922AC145-9418-43C2-A73F-4C84D61B99C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB6D701-6AB1-4904-9776-7E510C5E617F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Files_to_upload</t>
   </si>
   <si>
-    <t>\Testdata\Templates\ImportPublications\Test dataset - Success Case Sheet.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\ImportPublications\Test dataset - Failure Case Sheet.xlsx</t>
-  </si>
-  <si>
     <t>Test dataset - Success Case Sheet.xlsx</t>
   </si>
   <si>
@@ -71,6 +65,48 @@
   </si>
   <si>
     <t>test demo 1234 - test demo 1234 - Ovid search - 8/1/2022</t>
+  </si>
+  <si>
+    <t>pop3</t>
+  </si>
+  <si>
+    <t>pop4</t>
+  </si>
+  <si>
+    <t>pop5</t>
+  </si>
+  <si>
+    <t>pop6</t>
+  </si>
+  <si>
+    <t>Test dataset - Header Mismatch.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Staging_Env\Test dataset - Header Mismatch.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Staging_Env\Test dataset - Success Case Sheet.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Staging_Env\Test dataset - Failure Case Sheet.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Staging_Env\Test dataset - Letters in Publication Identifier.xlsx</t>
+  </si>
+  <si>
+    <t>Test dataset - Letters in Publication Identifier.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Staging_Env\Test dataset - Empty value in Publication Identifier.xlsx</t>
+  </si>
+  <si>
+    <t>Test dataset - Empty value in Publication Identifier.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Staging_Env\Test dataset - Duplicate value in FA18 column.xlsx</t>
+  </si>
+  <si>
+    <t>Test dataset - Duplicate value in FA18 column.xlsx</t>
   </si>
 </sst>
 </file>
@@ -392,27 +428,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="49" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="24.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -423,30 +459,86 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/ImportPublicationsPage_Data_Staging.xlsx
+++ b/Testdata/ImportPublicationsPage_Data_Staging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB6D701-6AB1-4904-9776-7E510C5E617F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD55749E-5100-475D-8823-0D786FFFC536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Test dataset - Success Case Sheet.xlsx</t>
   </si>
   <si>
-    <t>Test dataset - Failure Case Sheet.xlsx</t>
-  </si>
-  <si>
     <t>Population_name</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>Test - Test - Ovid search - 10/30/2020</t>
   </si>
   <si>
-    <t>test demo 1234 - test demo 1234 - Ovid search - 8/1/2022</t>
-  </si>
-  <si>
     <t>pop3</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>pop5</t>
   </si>
   <si>
-    <t>pop6</t>
-  </si>
-  <si>
     <t>Test dataset - Header Mismatch.xlsx</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>\Testdata\Templates\ImportPublications\Staging_Env\Test dataset - Success Case Sheet.xlsx</t>
   </si>
   <si>
-    <t>\Testdata\Templates\ImportPublications\Staging_Env\Test dataset - Failure Case Sheet.xlsx</t>
-  </si>
-  <si>
     <t>\Testdata\Templates\ImportPublications\Staging_Env\Test dataset - Letters in Publication Identifier.xlsx</t>
   </si>
   <si>
@@ -107,16 +95,52 @@
   </si>
   <si>
     <t>Test dataset - Duplicate value in FA18 column.xlsx</t>
+  </si>
+  <si>
+    <t>error_msg_col1</t>
+  </si>
+  <si>
+    <t>error_msg_col2</t>
+  </si>
+  <si>
+    <t>In column 'D' of the extraction file, variable ID should be 'FA-4' when the actual value is 'FA-3'</t>
+  </si>
+  <si>
+    <t>In column 'B' of the extraction file, variable ID should be 'FA-2' when the actual value is 'FA-4'</t>
+  </si>
+  <si>
+    <t>In column 'C' of the extraction file, variable ID should be 'FA-3' when the actual value is 'FA-2'</t>
+  </si>
+  <si>
+    <t>Publication Identifier (fa-2) : Value should be a numeric ID or a list of comma-separated numeric IDs</t>
+  </si>
+  <si>
+    <t>Property 'Publication Identifier (FA-2)' is mandatory</t>
+  </si>
+  <si>
+    <t>The Product Pomalidomide, Dexamethasone is duplicated</t>
+  </si>
+  <si>
+    <t>The Product Dexamethasone is duplicated</t>
+  </si>
+  <si>
+    <t>The Product Nivolumab, Daratumumab is duplicated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,12 +166,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,27 +451,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="49" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="24.44140625" style="2"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -456,92 +478,197 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
+      <c r="E17">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Testdata/ImportPublicationsPage_Data_Staging.xlsx
+++ b/Testdata/ImportPublicationsPage_Data_Staging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD55749E-5100-475D-8823-0D786FFFC536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE70DFC4-8D51-4F7A-8DCF-621227E2AB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>pop2</t>
   </si>
   <si>
-    <t>Test - Test - Ovid search - 10/30/2020</t>
-  </si>
-  <si>
     <t>pop3</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>The Product Nivolumab, Daratumumab is duplicated</t>
+  </si>
+  <si>
+    <t>Test - Test - 10/30/2020</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -490,13 +490,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -504,19 +504,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -538,133 +538,133 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/ImportPublicationsPage_Data_Staging.xlsx
+++ b/Testdata/ImportPublicationsPage_Data_Staging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE70DFC4-8D51-4F7A-8DCF-621227E2AB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4D7644-E60B-4EEB-9F44-FB8E13639937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Test - Test - 10/30/2020</t>
+  </si>
+  <si>
+    <t>pop_name</t>
+  </si>
+  <si>
+    <t>There is already an existing extraction file for Test - Test , please remove the previous upload and re-upload.</t>
   </si>
 </sst>
 </file>
@@ -451,21 +457,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -484,8 +491,11 @@
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -498,8 +508,11 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -519,7 +532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -530,7 +543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -541,7 +554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -561,7 +574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -572,7 +585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -583,7 +596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -603,7 +616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -614,7 +627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -625,7 +638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>

--- a/Testdata/ImportPublicationsPage_Data_Staging.xlsx
+++ b/Testdata/ImportPublicationsPage_Data_Staging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4D7644-E60B-4EEB-9F44-FB8E13639937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F4E8A8-A2C1-46A4-9927-20E9F215C8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <t>The Product Nivolumab, Daratumumab is duplicated</t>
   </si>
   <si>
-    <t>Test - Test - 10/30/2020</t>
-  </si>
-  <si>
     <t>pop_name</t>
   </si>
   <si>
     <t>There is already an existing extraction file for Test - Test , please remove the previous upload and re-upload.</t>
+  </si>
+  <si>
+    <t>Test - Test</t>
   </si>
 </sst>
 </file>
@@ -460,13 +460,13 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
@@ -492,7 +492,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -500,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -509,7 +509,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -517,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -559,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -601,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -643,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>

--- a/Testdata/ImportPublicationsPage_Data_Staging.xlsx
+++ b/Testdata/ImportPublicationsPage_Data_Staging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F4E8A8-A2C1-46A4-9927-20E9F215C8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1F718D-B851-4E96-880F-BD06FFAC8C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,12 +88,6 @@
     <t>Test dataset - Empty value in Publication Identifier.xlsx</t>
   </si>
   <si>
-    <t>\Testdata\Templates\ImportPublications\Staging_Env\Test dataset - Duplicate value in FA18 column.xlsx</t>
-  </si>
-  <si>
-    <t>Test dataset - Duplicate value in FA18 column.xlsx</t>
-  </si>
-  <si>
     <t>error_msg_col1</t>
   </si>
   <si>
@@ -131,6 +125,12 @@
   </si>
   <si>
     <t>Test - Test</t>
+  </si>
+  <si>
+    <t>Test dataset - Duplicate value in FA19 column.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Staging_Env\Test dataset - Duplicate value in FA19 column.xlsx</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,13 +486,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -500,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -509,7 +509,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -517,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -559,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -571,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -582,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -593,7 +593,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -601,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -613,7 +613,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -624,7 +624,7 @@
         <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -635,7 +635,7 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -643,19 +643,19 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
       </c>
       <c r="E16">
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -666,7 +666,7 @@
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -677,7 +677,7 @@
         <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/ImportPublicationsPage_Data_Staging.xlsx
+++ b/Testdata/ImportPublicationsPage_Data_Staging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1F718D-B851-4E96-880F-BD06FFAC8C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43A9539-D6B9-4DAE-B527-028112844D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>Test dataset - Success Case Sheet.xlsx</t>
   </si>
   <si>
-    <t>Population_name</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>\Testdata\Templates\ImportPublications\Staging_Env\Test dataset - Duplicate value in FA19 column.xlsx</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,10 +474,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -486,198 +486,198 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
       </c>
       <c r="E16">
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/ImportPublicationsPage_Data_Staging.xlsx
+++ b/Testdata/ImportPublicationsPage_Data_Staging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43A9539-D6B9-4DAE-B527-028112844D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52795A6-CA63-4DAF-A582-64FD3EE9FDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Files_to_upload</t>
   </si>
   <si>
-    <t>Test dataset - Success Case Sheet.xlsx</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -64,27 +61,6 @@
     <t>pop5</t>
   </si>
   <si>
-    <t>Test dataset - Header Mismatch.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\ImportPublications\Staging_Env\Test dataset - Header Mismatch.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\ImportPublications\Staging_Env\Test dataset - Success Case Sheet.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\ImportPublications\Staging_Env\Test dataset - Letters in Publication Identifier.xlsx</t>
-  </si>
-  <si>
-    <t>Test dataset - Letters in Publication Identifier.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\ImportPublications\Staging_Env\Test dataset - Empty value in Publication Identifier.xlsx</t>
-  </si>
-  <si>
-    <t>Test dataset - Empty value in Publication Identifier.xlsx</t>
-  </si>
-  <si>
     <t>error_msg_col1</t>
   </si>
   <si>
@@ -106,31 +82,175 @@
     <t>Property 'Publication Identifier (FA-2)' is mandatory</t>
   </si>
   <si>
-    <t>The Product Pomalidomide, Dexamethasone is duplicated</t>
-  </si>
-  <si>
-    <t>The Product Dexamethasone is duplicated</t>
-  </si>
-  <si>
-    <t>The Product Nivolumab, Daratumumab is duplicated</t>
-  </si>
-  <si>
-    <t>pop_name</t>
-  </si>
-  <si>
-    <t>There is already an existing extraction file for Test - Test , please remove the previous upload and re-upload.</t>
-  </si>
-  <si>
-    <t>Test - Test</t>
-  </si>
-  <si>
-    <t>Test dataset - Duplicate value in FA19 column.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\ImportPublications\Staging_Env\Test dataset - Duplicate value in FA19 column.xlsx</t>
-  </si>
-  <si>
     <t>Population</t>
+  </si>
+  <si>
+    <t>Population_Radio_button</t>
+  </si>
+  <si>
+    <t>slrtype</t>
+  </si>
+  <si>
+    <t>slrtype_Radio_button</t>
+  </si>
+  <si>
+    <t>ExpectedSourceTemplateFile</t>
+  </si>
+  <si>
+    <t>ExpectedFilenames</t>
+  </si>
+  <si>
+    <t>NewImportLogic_2 - Test_Automation_2</t>
+  </si>
+  <si>
+    <t>NewImportLogic_2 - Test_Automation_2_radio_button</t>
+  </si>
+  <si>
+    <t>Clinical</t>
+  </si>
+  <si>
+    <t>Clinical_radio_button</t>
+  </si>
+  <si>
+    <t>Success Sheet.xlsx</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_2-Test_Automation_2-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>Economic_radio_button</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_2-Test_Automation_2-Clinical-</t>
+  </si>
+  <si>
+    <t>Quality of Life</t>
+  </si>
+  <si>
+    <t>Quality of Life_radio_button</t>
+  </si>
+  <si>
+    <t>WordReport-NewImportLogic_2 - Test_Automation_2-Clinical-</t>
+  </si>
+  <si>
+    <t>Real-world Evidence</t>
+  </si>
+  <si>
+    <t>Real-world Evidence_radio_button</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_2-Test_Automation_2-Economic-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_2-Test_Automation_2-Economic-</t>
+  </si>
+  <si>
+    <t>Header Mismatch.xlsx</t>
+  </si>
+  <si>
+    <t>WordReport-NewImportLogic_2 - Test_Automation_2-Economic-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_2-Test_Automation_2-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_2-Test_Automation_2-Quality of Life-</t>
+  </si>
+  <si>
+    <t>In column 'HH' of the extraction file, variable ID should be 'FK-12' when the actual value is 'FK-13'</t>
+  </si>
+  <si>
+    <t>WordReport-NewImportLogic_2 - Test_Automation_2-Quality of Life-</t>
+  </si>
+  <si>
+    <t>In column 'HI' of the extraction file, variable ID should be 'FK-13' when the actual value is 'FK-12'</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_2-Test_Automation_2-Real-world Evidence-2023_</t>
+  </si>
+  <si>
+    <t>In column 'FJ' of the extraction file, variable ID should be 'FF-1' when the actual value is 'FFF-1'</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_2-Test_Automation_2-Real-world Evidence-</t>
+  </si>
+  <si>
+    <t>In column 'JJ' of the extraction file, variable ID should be 'FL-4' when the actual value is 'FL$-4'</t>
+  </si>
+  <si>
+    <t>WordReport-NewImportLogic_2 - Test_Automation_2-Real-world Evidence-</t>
+  </si>
+  <si>
+    <t>Letters in Publication Identifier.xlsx</t>
+  </si>
+  <si>
+    <t>Empty value in Publication Identifier.xlsx</t>
+  </si>
+  <si>
+    <t>Duplicate value in FA19 column.xlsx</t>
+  </si>
+  <si>
+    <t>The Product Afatinib is duplicated</t>
+  </si>
+  <si>
+    <t>The Product CLN-081 is duplicated</t>
+  </si>
+  <si>
+    <t>The Product Docetaxel, Nintedanib is duplicated</t>
+  </si>
+  <si>
+    <t>The Product Gefitinib, Erlotinib is duplicated</t>
+  </si>
+  <si>
+    <t>The Product Gefitinib is duplicated</t>
+  </si>
+  <si>
+    <t>The Product Placebo is duplicated</t>
+  </si>
+  <si>
+    <t>pop6</t>
+  </si>
+  <si>
+    <t>Invalid Date Format.xlsx</t>
+  </si>
+  <si>
+    <t>2022-11-04 that you entered in 'Update date' has not been added to LiveSLR for this project. Please add this date to 'Manage update' page and try again</t>
+  </si>
+  <si>
+    <t>Update date (yyyy-mm-dd) '' is not supported.</t>
+  </si>
+  <si>
+    <t>Update date (yyyy-mm-dd) 'NR' is not supported.</t>
+  </si>
+  <si>
+    <t>The value(s) in 'Update date' have to be in this format yyyy-mm-dd.</t>
+  </si>
+  <si>
+    <t>Update date (yyyy-mm-dd) 'NA' is not supported.</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Staging_Env\Success Sheet.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Staging_Env\Header Mismatch.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Staging_Env\Letters in Publication Identifier.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Staging_Env\Empty value in Publication Identifier.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Staging_Env\Duplicate value in FA19 column.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Staging_Env\Invalid Date Format.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Staging_Env\Expected_Reports\Expected_Data.xlsx</t>
   </si>
 </sst>
 </file>
@@ -457,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,216 +588,526 @@
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>64</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>120</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>150</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>22</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>109</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>136</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>75</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32">
+        <v>99</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>109</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <v>151</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>46</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>47</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38">
+        <v>62</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39">
+        <v>124</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40">
+        <v>134</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41">
+        <v>152</v>
+      </c>
+      <c r="I41" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
